--- a/biology/Histoire de la zoologie et de la botanique/Edward_Vernon_Harcourt/Edward_Vernon_Harcourt.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Edward_Vernon_Harcourt/Edward_Vernon_Harcourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edward William Vernon Harcourt (26 juin 1825 - 19 décembre 1891) est un naturaliste anglais et un homme politique conservateur.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est né à Stanton Harcourt, dans l'Oxfordshire et est le fils du révérend William Vernon Harcourt qui est aussi un scientifique et le petit-fils d'Edward Harcourt, archevêque d'York. Il fait ses études au Christ Church, à Oxford. Il est juge de paix pour Berks et le Sussex, puis juge de paix et vice-lieutenant de l'Oxfordshire et High Sheriff de l'Oxfordshire en 1875. Il est colonel honoraire de la 3e brigade de Volontaires de la division de Cinque Ports de l'Artillerie royale. Il est membre de la Commission royale pour l'organisation de la brigade de bénévoles en 1862, et pendant 15 ans président de l'Association Nationale de l'Artillerie.
 Harcourt est l'auteur de Sketch of Madeira (1851) (Croquis de Madère (1851)) et de Sporting in Algeria (1859) (sport en Algérie (1859)).
